--- a/core/static/Фундамент/Расчет_сваи.xlsx
+++ b/core/static/Фундамент/Расчет_сваи.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Павел\YandexDisk-ushakov2.aa\Удаленка\Общий диск\AMAST-автоматизация\amast_ta\core\static\Фундамент\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artem\YandexDisk\Удаленка\Общий диск\AMAST-автоматизация\amast_ta\core\static\Фундамент\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37EC78E-7D3F-420F-9C8A-5D2FEB6C5568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="2160" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Интерфейс" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Расчет сваи" sheetId="4" r:id="rId4"/>
     <sheet name="Расчет массы фланца" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="B25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B92" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="B92" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="B93" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="389">
   <si>
     <t>* блок "Геометрические характеристики сваи" *</t>
   </si>
@@ -545,9 +544,6 @@
   </si>
   <si>
     <t>γn</t>
-  </si>
-  <si>
-    <t>1,2</t>
   </si>
   <si>
     <t>1,3</t>
@@ -1285,19 +1281,19 @@
     <t>итоговая масса</t>
   </si>
   <si>
+    <t>Суглинок тугопластичный</t>
+  </si>
+  <si>
+    <t>Суглинок мягкопластичный</t>
+  </si>
+  <si>
     <t>1,7</t>
-  </si>
-  <si>
-    <t>Суглинок тугопластичный</t>
-  </si>
-  <si>
-    <t>Суглинок мягкопластичный</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2185,7 +2181,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2202,9 +2198,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2242,9 +2238,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2279,7 +2275,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2314,7 +2310,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2487,7 +2483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:L74"/>
   <sheetViews>
@@ -2495,24 +2491,24 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="121" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="121" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="121" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" style="121" customWidth="1"/>
     <col min="3" max="3" width="39" style="121" customWidth="1"/>
-    <col min="4" max="4" width="51.7109375" style="121" customWidth="1"/>
-    <col min="5" max="11" width="9.140625" style="121" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" style="121" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="121" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="121"/>
+    <col min="4" max="4" width="51.6640625" style="121" customWidth="1"/>
+    <col min="5" max="11" width="9.109375" style="121" customWidth="1"/>
+    <col min="12" max="12" width="22.44140625" style="121" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.109375" style="121" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="121"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="78" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
@@ -2526,7 +2522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">
         <v>5</v>
       </c>
@@ -2537,7 +2533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="38" t="s">
         <v>7</v>
       </c>
@@ -2548,7 +2544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="38" t="s">
         <v>10</v>
       </c>
@@ -2557,9 +2553,9 @@
       </c>
       <c r="D6" s="81"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="113" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="78" t="s">
         <v>13</v>
@@ -2568,12 +2564,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="L9" s="112" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="78" t="s">
         <v>15</v>
       </c>
@@ -2582,7 +2578,7 @@
       </c>
       <c r="D10" s="78"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="38" t="s">
         <v>17</v>
       </c>
@@ -2593,7 +2589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="38" t="s">
         <v>19</v>
       </c>
@@ -2607,7 +2603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="38" t="s">
         <v>23</v>
       </c>
@@ -2619,7 +2615,7 @@
       </c>
       <c r="E13" s="78"/>
     </row>
-    <row r="14" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="38" t="s">
         <v>25</v>
       </c>
@@ -2631,7 +2627,7 @@
       </c>
       <c r="E14" s="78"/>
     </row>
-    <row r="15" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="38" t="s">
         <v>27</v>
       </c>
@@ -2643,12 +2639,12 @@
       </c>
       <c r="E15" s="78"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="78" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="38" t="s">
         <v>30</v>
       </c>
@@ -2659,7 +2655,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="78"/>
       <c r="C19" s="122" t="s">
         <v>33</v>
@@ -2669,7 +2665,7 @@
       </c>
       <c r="E19" s="81"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="38" t="s">
         <v>35</v>
       </c>
@@ -2680,7 +2676,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="38" t="s">
         <v>38</v>
       </c>
@@ -2691,7 +2687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="38" t="s">
         <v>40</v>
       </c>
@@ -2700,7 +2696,7 @@
       </c>
       <c r="D22" s="38"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="38" t="s">
         <v>42</v>
       </c>
@@ -2712,7 +2708,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="38" t="s">
         <v>45</v>
       </c>
@@ -2721,7 +2717,7 @@
       </c>
       <c r="D24" s="38"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="38" t="s">
         <v>47</v>
       </c>
@@ -2732,7 +2728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="38" t="s">
         <v>49</v>
       </c>
@@ -2741,7 +2737,7 @@
       </c>
       <c r="F26" s="78"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="38" t="s">
         <v>51</v>
       </c>
@@ -2750,7 +2746,7 @@
       </c>
       <c r="D27" s="38"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="38" t="s">
         <v>53</v>
       </c>
@@ -2759,7 +2755,7 @@
       </c>
       <c r="D28" s="38"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="38" t="s">
         <v>55</v>
       </c>
@@ -2768,7 +2764,7 @@
       </c>
       <c r="D29" s="38"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="38" t="s">
         <v>57</v>
       </c>
@@ -2777,7 +2773,7 @@
       </c>
       <c r="D30" s="38"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="38" t="s">
         <v>59</v>
       </c>
@@ -2788,7 +2784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="38" t="s">
         <v>27</v>
       </c>
@@ -2797,21 +2793,21 @@
       </c>
       <c r="D32" s="38"/>
     </row>
-    <row r="34" spans="2:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="126" t="s">
         <v>62</v>
       </c>
       <c r="C34" s="127"/>
       <c r="D34" s="127"/>
     </row>
-    <row r="36" spans="2:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="126" t="s">
         <v>63</v>
       </c>
       <c r="C36" s="127"/>
       <c r="D36" s="127"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="38" t="s">
         <v>64</v>
       </c>
@@ -2822,7 +2818,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="38" t="s">
         <v>67</v>
       </c>
@@ -2833,7 +2829,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="38" t="s">
         <v>70</v>
       </c>
@@ -2844,18 +2840,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="38" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="82" t="s">
         <v>73</v>
       </c>
       <c r="C43" s="122"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="38" t="s">
         <v>53</v>
       </c>
@@ -2863,7 +2859,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="38" t="s">
         <v>55</v>
       </c>
@@ -2871,7 +2867,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="38" t="s">
         <v>59</v>
       </c>
@@ -2879,7 +2875,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="38" t="s">
         <v>27</v>
       </c>
@@ -2887,19 +2883,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="126" t="s">
         <v>78</v>
       </c>
       <c r="C49" s="127"/>
       <c r="D49" s="127"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="78" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="82" t="s">
         <v>80</v>
       </c>
@@ -2907,7 +2903,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="38" t="s">
         <v>81</v>
       </c>
@@ -2918,7 +2914,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="38" t="s">
         <v>84</v>
       </c>
@@ -2929,7 +2925,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="82" t="s">
         <v>86</v>
       </c>
@@ -2937,7 +2933,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="38" t="s">
         <v>87</v>
       </c>
@@ -2948,7 +2944,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="82" t="s">
         <v>89</v>
       </c>
@@ -2956,7 +2952,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="38" t="s">
         <v>90</v>
       </c>
@@ -2967,24 +2963,24 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="2:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="126" t="s">
         <v>93</v>
       </c>
       <c r="C62" s="127"/>
       <c r="D62" s="127"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" s="78" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" s="38" t="s">
         <v>95</v>
       </c>
@@ -2995,7 +2991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" s="38" t="s">
         <v>97</v>
       </c>
@@ -3006,7 +3002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" s="38" t="s">
         <v>99</v>
       </c>
@@ -3017,17 +3013,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" s="78" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" s="83" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71" s="38" t="s">
         <v>103</v>
       </c>
@@ -3036,7 +3032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72" s="38" t="s">
         <v>104</v>
       </c>
@@ -3045,7 +3041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" s="38" t="s">
         <v>105</v>
       </c>
@@ -3054,7 +3050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" s="38" t="s">
         <v>106</v>
       </c>
@@ -3071,7 +3067,7 @@
     <mergeCell ref="B34:D34"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8">
       <formula1>$L$8:$L$9</formula1>
     </dataValidation>
   </dataValidations>
@@ -3081,7 +3077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:I24"/>
   <sheetViews>
@@ -3089,18 +3085,18 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="122" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="122" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="122" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="122" customWidth="1"/>
     <col min="3" max="3" width="17" style="122" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="122" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="122" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="122" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="122"/>
+    <col min="4" max="7" width="9.109375" style="122" customWidth="1"/>
+    <col min="8" max="9" width="14.6640625" style="122" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.109375" style="122" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="122"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="67" t="s">
         <v>40</v>
       </c>
@@ -3126,7 +3122,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="67" t="s">
         <v>114</v>
       </c>
@@ -3152,7 +3148,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="67" t="s">
         <v>116</v>
       </c>
@@ -3178,7 +3174,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="67" t="s">
         <v>118</v>
       </c>
@@ -3204,7 +3200,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="67" t="s">
         <v>119</v>
       </c>
@@ -3230,7 +3226,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="67" t="s">
         <v>121</v>
       </c>
@@ -3256,7 +3252,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="67" t="s">
         <v>122</v>
       </c>
@@ -3282,7 +3278,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="67" t="s">
         <v>123</v>
       </c>
@@ -3308,7 +3304,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="67" t="s">
         <v>124</v>
       </c>
@@ -3334,7 +3330,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="67" t="s">
         <v>126</v>
       </c>
@@ -3360,7 +3356,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="67" t="s">
         <v>128</v>
       </c>
@@ -3386,7 +3382,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="67" t="s">
         <v>129</v>
       </c>
@@ -3412,7 +3408,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="67" t="s">
         <v>131</v>
       </c>
@@ -3438,7 +3434,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="67" t="s">
         <v>133</v>
       </c>
@@ -3464,7 +3460,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="67" t="s">
         <v>135</v>
       </c>
@@ -3490,7 +3486,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="67" t="s">
         <v>137</v>
       </c>
@@ -3516,7 +3512,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="67" t="s">
         <v>138</v>
       </c>
@@ -3542,7 +3538,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="67" t="s">
         <v>140</v>
       </c>
@@ -3568,7 +3564,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C20" s="122" t="s">
         <v>141</v>
       </c>
@@ -3579,13 +3575,13 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="68"/>
     </row>
-    <row r="22" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="68"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="73" t="s">
         <v>142</v>
       </c>
@@ -3609,36 +3605,36 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="76" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C24" s="77">
         <f>MATCH(B24,B3:B19,0)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D24" s="107">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E24" s="109">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F24" s="106" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G24" s="116">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="H24" s="119" t="s">
         <v>145</v>
       </c>
       <c r="I24" s="117" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B24" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B24">
       <formula1>$B$3:$B$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -3648,7 +3644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:Q30"/>
   <sheetViews>
@@ -3656,44 +3652,44 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="122" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" style="122" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" style="122" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="122" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" style="122" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" style="122" customWidth="1"/>
     <col min="4" max="4" width="18" style="122" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="122" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="122" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="122" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="122" customWidth="1"/>
     <col min="7" max="7" width="19" style="122" customWidth="1"/>
     <col min="8" max="8" width="20" style="122" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="122" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="122" customWidth="1"/>
-    <col min="11" max="11" width="28.85546875" style="122" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="122" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="122" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" style="122" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="122" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" style="122" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" style="122" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.140625" style="122" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="122"/>
+    <col min="9" max="9" width="9.109375" style="122" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="122" customWidth="1"/>
+    <col min="11" max="11" width="28.88671875" style="122" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="122" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" style="122" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" style="122" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="122" customWidth="1"/>
+    <col min="16" max="16" width="16.88671875" style="122" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.109375" style="122" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.109375" style="122" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="122"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="8">
         <f>'Расчет массы фланца'!C5/1000</f>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -3711,19 +3707,19 @@
         <v>5</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
         <v>35</v>
       </c>
@@ -3744,87 +3740,87 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="N7" s="1">
         <v>1.2</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="1">
         <v>1.3</v>
       </c>
     </row>
-    <row r="8" spans="2:17" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="29" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="F8" s="29" t="s">
+      <c r="G8" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="M8" s="29" t="s">
         <v>158</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>159</v>
       </c>
       <c r="N8" s="29">
         <v>1.25</v>
       </c>
       <c r="P8" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="29">
         <v>1.3</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="29" t="s">
         <v>42</v>
       </c>
@@ -3845,13 +3841,13 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N9" s="1">
         <v>1.3</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="29" t="s">
         <v>45</v>
       </c>
@@ -3872,13 +3868,13 @@
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="29" t="s">
         <v>47</v>
       </c>
@@ -3904,7 +3900,7 @@
         <v>данный слой отсутствует</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>49</v>
       </c>
@@ -3915,11 +3911,11 @@
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
       <c r="J12" s="128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K12" s="128"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="29" t="s">
         <v>51</v>
       </c>
@@ -3940,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
@@ -3961,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K14" s="35">
         <f>ROUND(IF($B$3&lt;=$D$10,
@@ -3978,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>55</v>
       </c>
@@ -3999,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K15" s="35">
         <f>ROUND(IF($B$3&lt;=$D$10,
@@ -4013,10 +4009,10 @@
 IF($B$3&lt;=$H$10,
 (D15*$D$11+E15*$E$11+F15*$F$11+G15*$G$11+H15*($B$3-$H$9))/$B$3,
 1))))),1)</f>
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>57</v>
       </c>
@@ -4037,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="123" t="s">
         <v>59</v>
       </c>
@@ -4063,7 +4059,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K17" s="59">
         <f>ROUND(IF($B$3&lt;=$D$10,
@@ -4077,10 +4073,10 @@
 IF($B$3&lt;=$H$10,
 (D17*$D$11+E17*$E$11+F17*$F$11+G17*$G$11+H17*($B$3-$H$9))/$B$3,
 1))))),2)</f>
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
@@ -4101,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K18" s="60">
         <f>ROUND(IF($B$3&lt;=$D$10,
@@ -4115,15 +4111,15 @@
 IF($B$3&lt;=$H$10,
 (D18*$D$11+E18*$E$11+F18*$F$11+G18*$G$11+H18*($B$3-$H$9))/$B$3,
 1))))),0)</f>
-        <v>21832</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+        <v>17255</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="56" t="s">
         <v>167</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>168</v>
       </c>
       <c r="D19" s="56">
         <f>MATCH(D7,$M$6:$M$10,0)</f>
@@ -4146,9 +4142,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20" s="56"/>
       <c r="D20" s="57">
@@ -4172,51 +4168,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K26" s="28"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="64">
         <f>MATCH(B26,P6:P8,0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C28" s="63">
         <v>1</v>
       </c>
       <c r="D28" s="110"/>
     </row>
-    <row r="30" spans="2:11" ht="270" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="270" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J30" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -4224,10 +4220,10 @@
     <mergeCell ref="J12:K12"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D7:H7" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D7:H7">
       <formula1>$M$6:$M$10</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B26" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B26">
       <formula1>$P$6:$P$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -4237,59 +4233,59 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="121" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="121" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="121" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="122" customWidth="1"/>
-    <col min="5" max="5" width="43.5703125" style="120" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="121" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="121" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="121" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="121" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" style="121" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="121" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="122" customWidth="1"/>
+    <col min="5" max="5" width="43.5546875" style="120" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="121" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="121" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="121" customWidth="1"/>
     <col min="9" max="11" width="10" style="121" customWidth="1"/>
-    <col min="12" max="12" width="33.140625" style="121" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.109375" style="121" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="121" customWidth="1"/>
-    <col min="14" max="17" width="10.7109375" style="121" customWidth="1"/>
-    <col min="18" max="18" width="59.140625" style="121" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.42578125" style="121" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="121" customWidth="1"/>
-    <col min="21" max="23" width="9.140625" style="121" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" style="121" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="9.140625" style="121" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="121"/>
+    <col min="14" max="17" width="10.6640625" style="121" customWidth="1"/>
+    <col min="18" max="18" width="59.109375" style="121" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.44140625" style="121" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" style="121" customWidth="1"/>
+    <col min="21" max="23" width="9.109375" style="121" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" style="121" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="9.109375" style="121" customWidth="1"/>
+    <col min="27" max="16384" width="9.109375" style="121"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="138" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C1" s="139"/>
       <c r="D1" s="135"/>
       <c r="G1" s="140" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H1" s="135"/>
       <c r="I1" s="37"/>
       <c r="J1" s="37"/>
       <c r="K1" s="37"/>
       <c r="L1" s="129" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M1" s="130"/>
       <c r="N1" s="122"/>
     </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B2" s="124" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="124"/>
       <c r="D2" s="123"/>
@@ -4299,20 +4295,20 @@
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
       <c r="L2" s="125" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M2" s="24">
         <f>I6*1000</f>
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="N2" s="122"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B3" s="123"/>
       <c r="C3" s="123"/>
       <c r="D3" s="123"/>
       <c r="E3" s="65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
@@ -4320,7 +4316,7 @@
       <c r="J3" s="37"/>
       <c r="K3" s="37"/>
       <c r="L3" s="125" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M3" s="24">
         <f>I8*1000</f>
@@ -4328,28 +4324,28 @@
       </c>
       <c r="N3" s="122"/>
       <c r="R3" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="S3" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="T3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B4" s="124" t="s">
         <v>112</v>
       </c>
@@ -4358,24 +4354,24 @@
         <v>0</v>
       </c>
       <c r="G4" s="134" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H4" s="135"/>
       <c r="I4" s="123"/>
       <c r="J4" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K4" s="37"/>
       <c r="L4" s="125" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M4" s="24">
         <f>(I5+I7)*1000</f>
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N4" s="122"/>
       <c r="R4" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S4" s="12"/>
       <c r="T4" s="4"/>
@@ -4386,36 +4382,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B5" s="124" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="124"/>
       <c r="D5" s="61"/>
       <c r="E5" s="120" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="H5" s="40" t="s">
         <v>191</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>192</v>
       </c>
       <c r="I5" s="17">
         <f>'Задание грунтов'!B3</f>
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="37"/>
       <c r="L5" s="125" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M5" s="3">
         <v>7850</v>
       </c>
       <c r="N5" s="122"/>
       <c r="R5" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S5" s="12"/>
       <c r="T5" s="4"/>
@@ -4426,50 +4422,50 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="123" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D6" s="123"/>
       <c r="G6" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="H6" s="40" t="s">
         <v>196</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>197</v>
       </c>
       <c r="I6" s="24">
         <f>J6/1000</f>
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="J6" s="17">
         <f>'Расчет массы фланца'!C3</f>
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K6" s="37"/>
       <c r="L6" s="125"/>
       <c r="M6" s="123"/>
       <c r="N6" s="122"/>
     </row>
-    <row r="7" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="123"/>
       <c r="C7" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D7" s="27">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!E24,'Задание грунтов'!K14)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E7" s="120" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="H7" s="41" t="s">
         <v>200</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>201</v>
       </c>
       <c r="I7" s="17">
         <v>0.5</v>
@@ -4477,27 +4473,27 @@
       <c r="J7" s="16"/>
       <c r="K7" s="37"/>
       <c r="L7" s="125" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M7" s="22">
         <f>M2*TAN(3.14159/12)</f>
-        <v>428.71832867528957</v>
+        <v>321.53874650646719</v>
       </c>
       <c r="N7" s="122"/>
     </row>
-    <row r="8" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>108</v>
       </c>
       <c r="D8" s="123"/>
       <c r="G8" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="H8" s="39" t="s">
         <v>203</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>204</v>
       </c>
       <c r="I8" s="24">
         <f>J8/1000</f>
@@ -4509,31 +4505,31 @@
       </c>
       <c r="K8" s="37"/>
       <c r="L8" s="125" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M8" s="22">
         <f>M7*12</f>
-        <v>5144.6199441034751</v>
+        <v>3858.4649580776063</v>
       </c>
       <c r="N8" s="122"/>
     </row>
-    <row r="9" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="33"/>
       <c r="C9" s="54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D9" s="27">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!D24,'Задание грунтов'!K15)</f>
-        <v>23.5</v>
+        <v>14</v>
       </c>
       <c r="E9" s="120" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G9" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="H9" s="39" t="s">
         <v>207</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>208</v>
       </c>
       <c r="I9" s="20">
         <f>206000000</f>
@@ -4542,56 +4538,56 @@
       <c r="J9" s="16"/>
       <c r="K9" s="37"/>
       <c r="L9" s="125" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M9" s="22">
         <f>M8*M3</f>
-        <v>61735.439329241701</v>
+        <v>46301.579496931277</v>
       </c>
       <c r="N9" s="122"/>
       <c r="R9" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="33"/>
       <c r="C10" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D10" s="25">
         <f>RADIANS(D9)</f>
-        <v>0.41015237421866746</v>
+        <v>0.24434609527920614</v>
       </c>
       <c r="G10" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="39" t="s">
         <v>212</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>213</v>
       </c>
       <c r="I10" s="26">
         <f>PI()/64*(I6^4-(I6-2*I8)^4)</f>
-        <v>1.8871978146891545E-2</v>
+        <v>7.9019588306085513E-3</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="37"/>
       <c r="L10" s="125" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M10" s="23">
         <f>M4*M9*10^(-9)</f>
-        <v>0.61735439329241704</v>
+        <v>0.27780947698158764</v>
       </c>
       <c r="N10" s="122"/>
       <c r="R10" s="42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B11" s="39" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="C11" s="39" t="s">
         <v>216</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>217</v>
       </c>
       <c r="D11" s="19">
         <v>14000</v>
@@ -4602,27 +4598,27 @@
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
       <c r="L11" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M11" s="21">
         <f>M5*M10</f>
-        <v>4846.2319873454735</v>
+        <v>2180.8043943054631</v>
       </c>
       <c r="N11" s="122"/>
       <c r="R11" s="43" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="39" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
-        <v>220</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>110</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="120" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
@@ -4633,182 +4629,182 @@
       <c r="M12" s="16"/>
       <c r="N12" s="122"/>
       <c r="R12" s="44" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="18" t="str">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!F24,'Задание грунтов'!K17)</f>
-        <v>1.02</v>
+        <v>1,7</v>
       </c>
       <c r="E13" s="120" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
       <c r="I13" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="J13" s="36" t="s">
         <v>222</v>
-      </c>
-      <c r="J13" s="36" t="s">
-        <v>223</v>
       </c>
       <c r="K13" s="37"/>
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
       <c r="R13" s="45" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="39" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="14" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="39" t="s">
+      <c r="C14" s="41" t="s">
         <v>225</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>226</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
       </c>
       <c r="G14" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="H14" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="H14" s="40" t="s">
-        <v>228</v>
-      </c>
       <c r="I14" s="17">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="J14" s="27">
         <f t="shared" ref="J14:J19" si="0">I14*1.1/1.3</f>
-        <v>2538.4615384615386</v>
+        <v>1692.3076923076922</v>
       </c>
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="37"/>
       <c r="R14" s="46" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" s="54" t="s">
         <v>111</v>
       </c>
       <c r="D15" s="62">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!G24,'Задание грунтов'!K18)</f>
-        <v>21832</v>
+        <v>12000</v>
       </c>
       <c r="E15" s="120" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G15" s="39"/>
       <c r="H15" s="39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I15" s="3">
         <f>I14+I16*I7</f>
-        <v>3090</v>
+        <v>2045</v>
       </c>
       <c r="J15" s="22">
         <f t="shared" si="0"/>
-        <v>2614.6153846153848</v>
+        <v>1730.3846153846152</v>
       </c>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="37"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B16" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" s="41" t="s">
         <v>231</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>232</v>
       </c>
       <c r="D16" s="24">
         <f>'Задание грунтов'!B23</f>
         <v>0</v>
       </c>
       <c r="E16" s="120" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G16" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="H16" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="H16" s="40" t="s">
-        <v>234</v>
-      </c>
       <c r="I16" s="17">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="J16" s="27">
         <f t="shared" si="0"/>
-        <v>152.30769230769232</v>
+        <v>76.15384615384616</v>
       </c>
       <c r="K16" s="37"/>
       <c r="L16" s="37"/>
       <c r="M16" s="37"/>
     </row>
-    <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G17" s="39"/>
       <c r="H17" s="39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I17" s="3">
         <f>I16</f>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="J17" s="22">
         <f t="shared" si="0"/>
-        <v>152.30769230769232</v>
+        <v>76.15384615384616</v>
       </c>
       <c r="K17" s="37"/>
       <c r="L17" s="37"/>
       <c r="M17" s="37"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="G18" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="H18" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="H18" s="40" t="s">
-        <v>237</v>
-      </c>
       <c r="I18" s="17">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J18" s="27">
         <f t="shared" si="0"/>
-        <v>93.07692307692308</v>
+        <v>101.53846153846153</v>
       </c>
       <c r="K18" s="37"/>
       <c r="L18" s="37"/>
       <c r="M18" s="37"/>
     </row>
-    <row r="19" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19" s="39"/>
       <c r="H19" s="39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I19" s="3">
         <f>I18</f>
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J19" s="22">
         <f t="shared" si="0"/>
-        <v>93.07692307692308</v>
+        <v>101.53846153846153</v>
       </c>
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
       <c r="M19" s="37"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
       <c r="I20" s="37"/>
@@ -4817,9 +4813,9 @@
       <c r="L20" s="37"/>
       <c r="M20" s="37"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="9"/>
@@ -4831,16 +4827,16 @@
       <c r="L21" s="37"/>
       <c r="M21" s="37"/>
     </row>
-    <row r="22" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D22" s="23">
         <f>D7/9.8</f>
-        <v>0</v>
+        <v>3.7755102040816322</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
@@ -4850,22 +4846,22 @@
       <c r="L22" s="37"/>
       <c r="M22" s="37"/>
       <c r="R22" s="66" t="s">
+        <v>239</v>
+      </c>
+      <c r="S22" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="S22" s="38" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="136" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D23" s="2">
         <f>D9</f>
-        <v>23.5</v>
+        <v>14</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>80</v>
@@ -4877,27 +4873,27 @@
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
       <c r="R23" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="S23" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="S23" s="38" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="132"/>
       <c r="C24" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D24" s="2">
         <f>RADIANS(D23)</f>
-        <v>0.41015237421866746</v>
+        <v>0.24434609527920614</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H24" s="2">
         <f>I7+2/I31</f>
-        <v>6.8411919401117904</v>
+        <v>6.0088950653517053</v>
       </c>
       <c r="I24" s="37"/>
       <c r="J24" s="37"/>
@@ -4905,29 +4901,29 @@
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
       <c r="R24" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="S24" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="S24" s="38" t="s">
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B25" s="39" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="39" t="s">
+      <c r="C25" s="40" t="s">
         <v>247</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>248</v>
       </c>
       <c r="D25" s="25">
         <f>0.9*((TAN(D24)-0.1))</f>
-        <v>0.3013311374648403</v>
+        <v>0.13439520255886261</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H25" s="2">
         <f>(I15+I16*H24)/I10*I6/2/1000</f>
-        <v>183.1886203167065</v>
+        <v>196.34123219160185</v>
       </c>
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
@@ -4935,32 +4931,32 @@
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
       <c r="R25" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="S25" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="S25" s="38" t="s">
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B26" s="39" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="39" t="s">
+      <c r="C26" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="D26" s="2" t="str">
+        <f>D13</f>
+        <v>1,7</v>
+      </c>
+      <c r="G26" s="14" t="s">
         <v>253</v>
-      </c>
-      <c r="D26" s="2">
-        <f>D13</f>
-        <v>1.02</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>254</v>
       </c>
       <c r="H26" s="48">
         <f>H25/235</f>
-        <v>0.77952604390087876</v>
+        <v>0.83549460507064621</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J26" s="37"/>
       <c r="K26" s="37"/>
@@ -4968,26 +4964,26 @@
       <c r="M26" s="37"/>
       <c r="R26" s="47"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" s="137" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="41" t="s">
         <v>256</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>257</v>
       </c>
       <c r="D27" s="2">
         <f>DEGREES(D28)</f>
-        <v>23.5</v>
+        <v>32.082736336205762</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H27" s="48">
         <f>H25/335</f>
-        <v>0.54683170243792989</v>
+        <v>0.58609323042269212</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J27" s="37"/>
       <c r="K27" s="37"/>
@@ -4995,14 +4991,14 @@
       <c r="M27" s="37"/>
       <c r="R27" s="47"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B28" s="132"/>
       <c r="C28" s="54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D28" s="2">
         <f>ATAN(TAN(D24)+D22/10)</f>
-        <v>0.41015237421866746</v>
+        <v>0.55994938211601297</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
@@ -5013,16 +5009,16 @@
       <c r="M28" s="37"/>
       <c r="R28" s="47"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B29" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D29" s="2">
         <f>D15/9.8</f>
-        <v>2227.7551020408164</v>
+        <v>1224.4897959183672</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
@@ -5033,19 +5029,19 @@
       <c r="M29" s="37"/>
       <c r="R29" s="47"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
       <c r="D30" s="123"/>
       <c r="G30" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="H30" s="40" t="s">
         <v>261</v>
-      </c>
-      <c r="H30" s="40" t="s">
-        <v>262</v>
       </c>
       <c r="I30" s="24">
         <f>IF(I6&gt;0.8,(I6+1),(1.5*I6+0.5))</f>
-        <v>2.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J30" s="37"/>
       <c r="K30" s="37"/>
@@ -5053,21 +5049,21 @@
       <c r="M30" s="37"/>
       <c r="R30" s="47"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B31" s="134" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C31" s="135"/>
       <c r="D31" s="123"/>
       <c r="G31" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="H31" s="41" t="s">
         <v>264</v>
-      </c>
-      <c r="H31" s="41" t="s">
-        <v>265</v>
       </c>
       <c r="I31" s="23">
         <f>(D11*I30/D14/I9/I10)^0.2</f>
-        <v>0.31539811740263163</v>
+        <v>0.36304920973700083</v>
       </c>
       <c r="J31" s="37"/>
       <c r="K31" s="37"/>
@@ -5075,26 +5071,26 @@
       <c r="M31" s="37"/>
       <c r="R31" s="47"/>
     </row>
-    <row r="32" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D32" s="3">
         <f>I14</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G32" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="H32" s="49" t="s">
         <v>267</v>
-      </c>
-      <c r="H32" s="49" t="s">
-        <v>268</v>
       </c>
       <c r="I32" s="23">
         <f>I5*I31</f>
-        <v>2.9962821153250006</v>
+        <v>1.9967706535535046</v>
       </c>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
@@ -5102,12 +5098,12 @@
       <c r="M32" s="37"/>
       <c r="R32" s="47"/>
     </row>
-    <row r="33" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="C33" s="39" t="s">
         <v>269</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>270</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
@@ -5121,82 +5117,82 @@
       <c r="M33" s="37"/>
       <c r="R33" s="47"/>
     </row>
-    <row r="34" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D34" s="3">
         <f>I16</f>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="R34" s="47"/>
     </row>
-    <row r="35" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="C35" s="39" t="s">
         <v>272</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>273</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="47"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B36" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="C36" s="39" t="s">
         <v>236</v>
-      </c>
-      <c r="C36" s="39" t="s">
-        <v>237</v>
       </c>
       <c r="D36" s="3">
         <f>I18</f>
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="R36" s="47"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B37" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C37" s="39"/>
       <c r="D37" s="2">
         <f>J16</f>
-        <v>152.30769230769232</v>
+        <v>76.15384615384616</v>
       </c>
       <c r="R37" s="47"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C38" s="39"/>
       <c r="D38" s="123"/>
       <c r="R38" s="47"/>
     </row>
-    <row r="39" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D39" s="2">
         <f>D32/9.8+D41*D52</f>
-        <v>315.30612244897958</v>
+        <v>208.67346938775509</v>
       </c>
       <c r="R39" s="47"/>
     </row>
-    <row r="40" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D40" s="2">
         <f>D33/9.8+D42*D52</f>
@@ -5204,25 +5200,25 @@
       </c>
       <c r="R40" s="47"/>
     </row>
-    <row r="41" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D41" s="2">
         <f>D34/9.8</f>
-        <v>18.367346938775508</v>
+        <v>9.1836734693877542</v>
       </c>
       <c r="R41" s="47"/>
     </row>
-    <row r="42" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D42" s="2">
         <f>D35/9.8</f>
@@ -5230,47 +5226,47 @@
       </c>
       <c r="R42" s="47"/>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B43" s="39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D43" s="2">
         <f>D36/9.8</f>
-        <v>11.224489795918366</v>
+        <v>12.244897959183673</v>
       </c>
       <c r="R43" s="47"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B44" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="C44" s="40" t="s">
         <v>281</v>
-      </c>
-      <c r="C44" s="40" t="s">
-        <v>282</v>
       </c>
       <c r="D44" s="2">
         <f>D39/D41</f>
-        <v>17.166666666666668</v>
+        <v>22.722222222222225</v>
       </c>
       <c r="R44" s="47"/>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B45" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D45" s="2">
         <f>D37/9.8</f>
-        <v>15.54160125588697</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+        <v>7.7708006279434851</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B46" s="39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C46" s="39"/>
       <c r="D46" s="2">
@@ -5278,423 +5274,423 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" s="39" t="s">
         <v>285</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>286</v>
       </c>
       <c r="D47" s="2">
         <f>-0.277*D46^3+0.854*D46^2-0.866*D46+1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
       <c r="D48" s="123"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="124"/>
     </row>
-    <row r="50" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D50" s="2">
         <f>I5</f>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D51" s="2">
         <f>I6</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D52" s="2">
         <f>I7</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="C53" s="39" t="s">
         <v>290</v>
-      </c>
-      <c r="C53" s="39" t="s">
-        <v>291</v>
       </c>
       <c r="D53" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="C54" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="C54" s="39" t="s">
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="39" t="s">
         <v>293</v>
       </c>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="39" t="s">
+      <c r="C55" s="39" t="s">
         <v>294</v>
-      </c>
-      <c r="C55" s="39" t="s">
-        <v>295</v>
       </c>
       <c r="D55" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="C56" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="C56" s="39" t="s">
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="39" t="s">
+      <c r="C57" s="39" t="s">
         <v>298</v>
-      </c>
-      <c r="C57" s="39" t="s">
-        <v>299</v>
       </c>
       <c r="D57" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="C58" s="39" t="s">
         <v>300</v>
-      </c>
-      <c r="C58" s="39" t="s">
-        <v>301</v>
       </c>
       <c r="D58" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="C59" s="39" t="s">
         <v>302</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>303</v>
       </c>
       <c r="D59" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="C60" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="C60" s="39" t="s">
-        <v>305</v>
-      </c>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="39"/>
       <c r="C61" s="41"/>
       <c r="D61" s="123"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="124"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="C63" s="54" t="s">
         <v>307</v>
-      </c>
-      <c r="C63" s="54" t="s">
-        <v>308</v>
       </c>
       <c r="D63" s="23">
         <f>1-0.03*D22</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+        <v>0.88673469387755099</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="C64" s="54" t="s">
         <v>309</v>
-      </c>
-      <c r="C64" s="54" t="s">
-        <v>310</v>
       </c>
       <c r="D64" s="23">
         <f>D44/D50</f>
-        <v>1.8070175438596492</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.1313131313131315</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="131"/>
       <c r="C65" s="54" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D65" s="23">
         <f>(D51/2+D53)*D25/D50</f>
-        <v>2.537525368124971E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.4661294824603193E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="133"/>
       <c r="C66" s="54" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D66" s="23">
         <f>(D51/2+D54)*D25/D50</f>
-        <v>2.537525368124971E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+        <v>1.4661294824603193E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" s="133"/>
       <c r="C67" s="54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D67" s="23">
         <f>D26*TAN(RADIANS(45+D23/2))^2</f>
-        <v>2.3729261387644587</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.7850259890958404</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="133"/>
       <c r="C68" s="54" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D68" s="23">
         <f>2*D22*TAN(RADIANS(45+D23/2))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+        <v>9.6648653859477367</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" s="133"/>
       <c r="C69" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D69" s="23">
         <f>D68/D67/D50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.63096296367452886</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="133"/>
       <c r="C70" s="54" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D70" s="50">
         <f>D25*D51/2/D50</f>
-        <v>2.537525368124971E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.4661294824603193E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="133"/>
       <c r="C71" s="54" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D71" s="23">
         <f>2/3*TAN(D28/5)/TAN(RADIANS(45-D27/2))</f>
-        <v>8.3599108366186184E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.13548658696783511</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="132"/>
       <c r="C72" s="54" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D72" s="23">
         <f>1+D71*D50/D51</f>
-        <v>1.4963697059242305</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+        <v>1.6209801902692442</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="C73" s="54" t="s">
         <v>319</v>
-      </c>
-      <c r="C73" s="54" t="s">
-        <v>320</v>
       </c>
       <c r="D73" s="23">
         <f>D51*D72</f>
-        <v>2.394191529478769</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+        <v>1.9451762283230929</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="C74" s="54" t="s">
         <v>321</v>
-      </c>
-      <c r="C74" s="54" t="s">
-        <v>322</v>
       </c>
       <c r="D74" s="22">
         <f>D67*D73*D50*D50/2</f>
-        <v>256.36593972557688</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+        <v>81.937666032424985</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B75" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="C75" s="54" t="s">
         <v>323</v>
-      </c>
-      <c r="C75" s="54" t="s">
-        <v>324</v>
       </c>
       <c r="D75" s="23">
         <f>(D57-D51)*D59*(D68+D67*D55)*(1+0.3/D57)*0.71</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="C76" s="54" t="s">
         <v>325</v>
-      </c>
-      <c r="C76" s="54" t="s">
-        <v>326</v>
       </c>
       <c r="D76" s="23">
         <f>(D58-D51)*D60*(D68+D67*(D50-D56))*(1+0.3/D58)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" s="131"/>
       <c r="C77" s="54" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D77" s="23">
         <f>D75/D74</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="133"/>
       <c r="C78" s="54" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D78" s="51">
         <f>D76/D74</f>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="133"/>
       <c r="C79" s="54" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D79" s="20">
         <f>D25*D43/D74</f>
-        <v>1.3193204531331638E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+        <v>2.0084237460289169E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B80" s="132"/>
       <c r="C80" s="39"/>
       <c r="D80" s="52"/>
     </row>
-    <row r="81" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="136" t="s">
+        <v>329</v>
+      </c>
+      <c r="C81" s="39" t="s">
         <v>330</v>
-      </c>
-      <c r="C81" s="39" t="s">
-        <v>331</v>
       </c>
       <c r="D81" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" s="133"/>
       <c r="C82" s="39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D82" s="2">
         <f>3/2*(D64+D69)</f>
-        <v>2.7105263157894739</v>
-      </c>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7.1434141424814905</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B83" s="133"/>
       <c r="C83" s="39" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D83" s="2">
         <f>3*D64*D69</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7.8201167316024947</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B84" s="132"/>
       <c r="C84" s="39" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D84" s="2">
         <f>-(1/4*((2*D69+1)*(3*D64+3*D70+2)-D69)+3/4*D79*(1+D64)-3/4*(D77*(D64+D55/D50-D65)-D78*(D64-D56/D50+D66+1)))</f>
-        <v>-1.9020697655900567</v>
-      </c>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-8.083931392770495</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B85" s="131"/>
       <c r="C85" s="40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D85" s="23">
         <f>(3*D64*D69-0.5625)/(3/2*(D64+D69)+1.5)</f>
-        <v>-0.13359374999999998</v>
-      </c>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0.83967013635642618</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B86" s="132"/>
       <c r="C86" s="40" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D86" s="23">
         <f>(-1/4*(((2*D69+1)*(3*D64+3*D70+2)-D69)-3*(D77*(D64+D55/D50-D65)-D78*(D64-D56/D50+D66+1))+3*D79*(1+D64))+0.03125)/(3/2*(D64+D69)+1.5)</f>
-        <v>-0.4443196943276384</v>
-      </c>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-0.9316551607995267</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B87" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="C87" s="54" t="s">
         <v>337</v>
-      </c>
-      <c r="C87" s="54" t="s">
-        <v>338</v>
       </c>
       <c r="D87" s="50">
         <f>-D85/2+SQRT((D85/2)^2-D86)</f>
-        <v>0.73670844889419984</v>
-      </c>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0.63274112634251223</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B88" s="39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C88" s="39"/>
       <c r="D88" s="2">
@@ -5702,9 +5698,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B89" s="39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C89" s="39"/>
       <c r="D89" s="2">
@@ -5712,37 +5708,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
       <c r="D90" s="124"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B91" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C91" s="14"/>
       <c r="D91" s="124"/>
       <c r="E91" s="121"/>
     </row>
-    <row r="92" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C92" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="D92" s="25">
+      <c r="D92" s="25" t="str">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!H24,'Задание грунтов'!C28)</f>
-        <v>1</v>
+        <v>1,3</v>
       </c>
       <c r="E92" s="121" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="39" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="93" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="39" t="s">
-        <v>344</v>
       </c>
       <c r="C93" s="54" t="s">
         <v>144</v>
@@ -5752,175 +5748,175 @@
         <v>1,3</v>
       </c>
       <c r="E93" s="121" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M93" s="122"/>
     </row>
-    <row r="94" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="39"/>
       <c r="C94" s="40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D94" s="2">
         <f>D63/(D64+D87)*(D74*(2/3*(D87^3+3*D69*(D87^2-D87+1/2)-3/2*D87+1)+(2*D69+1)*D70)+D25*D43*(1-D87)+D75*(D87-D55/D50+D65)+D76*(1-D87-D56/D50+D66))*D47</f>
-        <v>22.713361657810292</v>
-      </c>
-    </row>
-    <row r="95" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8.8618637830771263</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="39"/>
       <c r="C95" s="39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D95" s="2">
         <f>D94*D44</f>
-        <v>389.91270845907673</v>
-      </c>
-    </row>
-    <row r="96" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>201.36123818214139</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="C96" s="40" t="s">
         <v>348</v>
-      </c>
-      <c r="C96" s="40" t="s">
-        <v>349</v>
       </c>
       <c r="D96" s="2">
         <f>D94*D92/D93</f>
-        <v>17.471816659854071</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8.8618637830771263</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="C97" s="39" t="s">
         <v>350</v>
-      </c>
-      <c r="C97" s="39" t="s">
-        <v>351</v>
       </c>
       <c r="D97" s="2">
         <f>D96*D44</f>
-        <v>299.93285266082825</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+        <v>201.36123818214139</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C98" s="55"/>
       <c r="D98" s="53">
         <f>D41/D96</f>
-        <v>1.0512557049078444</v>
+        <v>1.0363139960383012</v>
       </c>
       <c r="E98" s="34" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" s="39"/>
       <c r="C99" s="39"/>
       <c r="D99" s="123"/>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" s="14" t="s">
         <v>89</v>
       </c>
       <c r="C100" s="14"/>
       <c r="D100" s="124"/>
     </row>
-    <row r="101" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="39"/>
       <c r="C101" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D101" s="2">
         <f>D51/D50</f>
-        <v>0.16842105263157894</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.21818181818181817</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="39"/>
       <c r="C102" s="39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D102" s="2">
         <f>3*D57*D59/D50/D50</f>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="39"/>
       <c r="C103" s="39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D103" s="2">
         <f>D51/D50</f>
-        <v>0.16842105263157894</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+        <v>0.21818181818181817</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B104" s="39"/>
       <c r="C104" s="54" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D104" s="2">
         <f>-29.48*D101^5+96.67*D101^4-124.7*D101^3+82.34*D101^2-31.23*D101+8.713</f>
-        <v>5.2668865715362747</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.7281679440475379</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="39"/>
       <c r="C105" s="41" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D105" s="2">
         <f>-29.48*D102^5+96.67*D102^4-124.7*D102^3+82.34*D102^2-31.23*D102+8.713</f>
         <v>8.7129999999999992</v>
       </c>
     </row>
-    <row r="106" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="39"/>
       <c r="C106" s="41" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D106" s="2">
         <f>-29.48*D103^5+96.67*D103^4-124.7*D103^3+82.34*D103^2-31.23*D103+8.713</f>
-        <v>5.2668865715362747</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+        <v>4.7281679440475379</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>90</v>
       </c>
       <c r="C107" s="55" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D107" s="111">
         <f>ROUND((3*D45/4/D29/D50/D50*(6*D64+3)*D104),3)</f>
-        <v>4.0000000000000001E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E107" s="34" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B108" s="39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C108" s="41"/>
       <c r="D108" s="51">
         <f>3*D45/8/D29/D50/D50*((6*D64+5)*D105+(6*D64+1)*D106)</f>
-        <v>5.8092118672708601E-3</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+        <v>3.001084691763618E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B109" s="37"/>
       <c r="C109" s="37"/>
       <c r="D109" s="16"/>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B110" s="37"/>
       <c r="C110" s="37"/>
       <c r="D110" s="16"/>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B111" s="37"/>
       <c r="C111" s="37"/>
       <c r="D111" s="16"/>
@@ -5946,7 +5942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J34"/>
   <sheetViews>
@@ -5954,58 +5950,58 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
     <col min="6" max="6" width="45" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="44.5703125" customWidth="1"/>
+    <col min="8" max="8" width="44.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="122"/>
       <c r="B1" s="84"/>
       <c r="C1" s="84"/>
       <c r="D1" s="84"/>
       <c r="E1" s="122"/>
       <c r="F1" s="142" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G1" s="143"/>
       <c r="H1" s="85" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I1" s="122"/>
       <c r="J1" s="122"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="122"/>
       <c r="B2" s="144" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C2" s="143"/>
       <c r="D2" s="85"/>
       <c r="E2" s="122"/>
       <c r="F2" s="141" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G2" s="135"/>
       <c r="H2" s="86"/>
       <c r="I2" s="122"/>
       <c r="J2" s="122"/>
     </row>
-    <row r="3" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="122"/>
       <c r="B3" s="87" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="88">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="D3" s="89" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E3" s="122"/>
       <c r="F3" s="90" t="s">
@@ -6015,12 +6011,12 @@
         <v>2000</v>
       </c>
       <c r="H3" s="89" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I3" s="122"/>
       <c r="J3" s="122"/>
     </row>
-    <row r="4" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="122"/>
       <c r="B4" s="87" t="s">
         <v>5</v>
@@ -6029,34 +6025,34 @@
         <v>12</v>
       </c>
       <c r="D4" s="91" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E4" s="122"/>
       <c r="F4" s="90" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G4" s="88">
         <f>C3-100</f>
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H4" s="89" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I4" s="122"/>
       <c r="J4" s="122"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="122" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" s="87" t="s">
         <v>370</v>
       </c>
-      <c r="B5" s="87" t="s">
-        <v>371</v>
-      </c>
       <c r="C5" s="88">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="D5" s="91" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E5" s="122"/>
       <c r="F5" s="90" t="s">
@@ -6066,15 +6062,15 @@
         <v>50</v>
       </c>
       <c r="H5" s="91" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I5" s="122"/>
       <c r="J5" s="122"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="122"/>
       <c r="B6" s="87" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C6" s="92">
         <v>7850</v>
@@ -6082,7 +6078,7 @@
       <c r="D6" s="86"/>
       <c r="E6" s="122"/>
       <c r="F6" s="90" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G6" s="92">
         <v>7850</v>
@@ -6091,7 +6087,7 @@
       <c r="I6" s="122"/>
       <c r="J6" s="122"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="122"/>
       <c r="B7" s="87"/>
       <c r="C7" s="1"/>
@@ -6103,19 +6099,19 @@
       <c r="I7" s="122"/>
       <c r="J7" s="122"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="122"/>
       <c r="B8" s="87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="93">
         <f>C3*TAN(3.14159/12)</f>
-        <v>428.71832867528957</v>
+        <v>321.53874650646719</v>
       </c>
       <c r="D8" s="86"/>
       <c r="E8" s="122"/>
       <c r="F8" s="90" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G8" s="94">
         <f>12*G3^2/4*TAN(3.14/12)/10^6</f>
@@ -6125,83 +6121,83 @@
       <c r="I8" s="122"/>
       <c r="J8" s="122"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="122"/>
       <c r="B9" s="87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" s="93">
         <f>C8*12</f>
-        <v>5144.6199441034751</v>
+        <v>3858.4649580776063</v>
       </c>
       <c r="D9" s="86"/>
       <c r="E9" s="122"/>
       <c r="F9" s="90" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G9" s="94">
         <f>3.14*G4^2/4/10^6</f>
-        <v>1.7662500000000001</v>
+        <v>0.94984999999999997</v>
       </c>
       <c r="H9" s="86"/>
       <c r="I9" s="122"/>
       <c r="J9" s="122"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="122"/>
       <c r="B10" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C10" s="93">
         <f>C9*C4</f>
-        <v>61735.439329241701</v>
+        <v>46301.579496931277</v>
       </c>
       <c r="D10" s="86"/>
       <c r="E10" s="122"/>
       <c r="F10" s="90" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G10" s="94">
         <f>G8-G9</f>
-        <v>1.4474333688937173</v>
+        <v>2.2638333688937173</v>
       </c>
       <c r="H10" s="86"/>
       <c r="I10" s="122"/>
       <c r="J10" s="122"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="122"/>
       <c r="B11" s="87" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C11" s="94">
         <f>C5*C10*10^(-9)</f>
-        <v>0.58648667362779616</v>
+        <v>0.25465868723312202</v>
       </c>
       <c r="D11" s="86"/>
       <c r="E11" s="122"/>
       <c r="F11" s="90" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G11" s="94">
         <f>G10*G5/1000</f>
-        <v>7.2371668444685872E-2</v>
+        <v>0.11319166844468585</v>
       </c>
       <c r="H11" s="86"/>
       <c r="I11" s="122"/>
       <c r="J11" s="122"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="122"/>
       <c r="B12" s="95" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C12" s="96">
         <f>C6*C11</f>
-        <v>4603.9203879781999</v>
+        <v>1999.0706947800079</v>
       </c>
       <c r="D12" s="91" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E12" s="122"/>
       <c r="F12" s="97" t="s">
@@ -6209,25 +6205,25 @@
       </c>
       <c r="G12" s="96">
         <f>G6*G11</f>
-        <v>568.11759729078415</v>
+        <v>888.55459729078393</v>
       </c>
       <c r="H12" s="91" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I12" s="122"/>
       <c r="J12" s="122"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="122"/>
       <c r="B13" s="95" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C13" s="96">
         <f>C12*1.1</f>
-        <v>5064.3124267760204</v>
+        <v>2198.9777642580088</v>
       </c>
       <c r="D13" s="91" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E13" s="122"/>
       <c r="F13" s="98"/>
@@ -6236,85 +6232,85 @@
       <c r="I13" s="122"/>
       <c r="J13" s="122"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="122"/>
       <c r="B14" s="99" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C14" s="100">
         <f>C12*1.15</f>
-        <v>5294.5084461749293</v>
+        <v>2298.931298997009</v>
       </c>
       <c r="D14" s="101" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E14" s="122"/>
       <c r="F14" s="97" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="86"/>
       <c r="I14" s="122"/>
       <c r="J14" s="122"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="122"/>
       <c r="B15" s="122"/>
       <c r="C15" s="122"/>
       <c r="D15" s="122"/>
       <c r="E15" s="122"/>
       <c r="F15" s="87" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G15" s="35">
         <f>C12+G12</f>
-        <v>5172.0379852689839</v>
+        <v>2887.6252920707921</v>
       </c>
       <c r="H15" s="91" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I15" s="122"/>
       <c r="J15" s="122"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="122"/>
       <c r="B16" s="122"/>
       <c r="C16" s="122"/>
       <c r="D16" s="122"/>
       <c r="E16" s="122"/>
       <c r="F16" s="102" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G16" s="35">
         <f>G15*1.1</f>
-        <v>5689.2417837958828</v>
+        <v>3176.3878212778714</v>
       </c>
       <c r="H16" s="91" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I16" s="122"/>
       <c r="J16" s="122"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="122"/>
       <c r="B17" s="122"/>
       <c r="C17" s="122"/>
       <c r="D17" s="122"/>
       <c r="E17" s="122"/>
       <c r="F17" s="103" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G17" s="104">
         <f>G15*1.15</f>
-        <v>5947.8436830593309</v>
+        <v>3320.7690858814108</v>
       </c>
       <c r="H17" s="101" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I17" s="122"/>
       <c r="J17" s="122"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="122"/>
       <c r="B18" s="122"/>
       <c r="C18" s="122"/>
@@ -6326,21 +6322,21 @@
       <c r="I18" s="122"/>
       <c r="J18" s="122"/>
     </row>
-    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="122"/>
       <c r="B19" s="122"/>
       <c r="C19" s="122"/>
       <c r="D19" s="122"/>
       <c r="E19" s="122"/>
       <c r="F19" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G19" s="122"/>
       <c r="H19" s="122"/>
       <c r="I19" s="122"/>
       <c r="J19" s="122"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="122"/>
       <c r="B20" s="122"/>
       <c r="C20" s="122"/>
@@ -6352,12 +6348,12 @@
       <c r="I20" s="122"/>
       <c r="J20" s="122"/>
     </row>
-    <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="122"/>
       <c r="B21" s="122"/>
       <c r="C21" s="122"/>
       <c r="D21" s="105" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E21" s="122"/>
       <c r="F21" s="122"/>
@@ -6366,12 +6362,12 @@
       <c r="I21" s="122"/>
       <c r="J21" s="122"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="122"/>
       <c r="B22" s="122"/>
       <c r="C22" s="122"/>
       <c r="D22" s="93" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E22" s="122"/>
       <c r="F22" s="122"/>
@@ -6380,12 +6376,12 @@
       <c r="I22" s="122"/>
       <c r="J22" s="122"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="122"/>
       <c r="B23" s="122"/>
       <c r="C23" s="122"/>
       <c r="D23" s="35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E23" s="122"/>
       <c r="F23" s="122"/>
@@ -6394,7 +6390,7 @@
       <c r="I23" s="122"/>
       <c r="J23" s="122"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="122"/>
       <c r="B24" s="122"/>
       <c r="C24" s="122"/>
@@ -6406,7 +6402,7 @@
       <c r="I24" s="122"/>
       <c r="J24" s="122"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="122"/>
       <c r="B25" s="122"/>
       <c r="C25" s="122"/>
@@ -6418,7 +6414,7 @@
       <c r="I25" s="122"/>
       <c r="J25" s="122"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="122"/>
       <c r="B26" s="122"/>
       <c r="C26" s="122"/>
@@ -6430,7 +6426,7 @@
       <c r="I26" s="122"/>
       <c r="J26" s="122"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="122"/>
       <c r="B27" s="122"/>
       <c r="C27" s="122"/>
@@ -6442,7 +6438,7 @@
       <c r="I27" s="122"/>
       <c r="J27" s="122"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="122"/>
       <c r="B28" s="122"/>
       <c r="C28" s="122"/>
@@ -6454,7 +6450,7 @@
       <c r="I28" s="122"/>
       <c r="J28" s="122"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="122"/>
       <c r="B29" s="122"/>
       <c r="C29" s="122"/>
@@ -6466,7 +6462,7 @@
       <c r="I29" s="122"/>
       <c r="J29" s="122"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="122"/>
       <c r="B30" s="122"/>
       <c r="C30" s="122"/>
@@ -6478,7 +6474,7 @@
       <c r="I30" s="122"/>
       <c r="J30" s="122"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="122"/>
       <c r="B31" s="122"/>
       <c r="C31" s="122"/>
@@ -6490,7 +6486,7 @@
       <c r="I31" s="122"/>
       <c r="J31" s="122"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="122"/>
       <c r="B32" s="122"/>
       <c r="C32" s="122"/>
@@ -6502,7 +6498,7 @@
       <c r="I32" s="122"/>
       <c r="J32" s="122"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="122"/>
       <c r="B33" s="122"/>
       <c r="C33" s="122"/>
@@ -6514,7 +6510,7 @@
       <c r="I33" s="122"/>
       <c r="J33" s="122"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="122"/>
       <c r="B34" s="122"/>
       <c r="C34" s="122"/>

--- a/core/static/Фундамент/Расчет_сваи.xlsx
+++ b/core/static/Фундамент/Расчет_сваи.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artem\YandexDisk\Удаленка\Общий диск\AMAST-автоматизация\amast_ta\core\static\Фундамент\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879D422E-944C-4D18-BB5D-EF554093A936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Интерфейс" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Расчет сваи" sheetId="4" r:id="rId4"/>
     <sheet name="Расчет массы фланца" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,12 +37,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B25" authorId="0" shapeId="0">
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B92" authorId="0" shapeId="0">
+    <comment ref="B92" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B93" authorId="0" shapeId="0">
+    <comment ref="B93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="389">
   <si>
     <t>* блок "Геометрические характеристики сваи" *</t>
   </si>
@@ -1287,13 +1288,13 @@
     <t>Суглинок мягкопластичный</t>
   </si>
   <si>
-    <t>1,7</t>
+    <t>1,2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2181,7 +2182,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2198,9 +2199,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2238,9 +2239,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2275,7 +2276,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2310,7 +2311,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2483,7 +2484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:L74"/>
   <sheetViews>
@@ -3067,7 +3068,7 @@
     <mergeCell ref="B34:D34"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$L$8:$L$9</formula1>
     </dataValidation>
   </dataValidations>
@@ -3077,7 +3078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:I24"/>
   <sheetViews>
@@ -3607,26 +3608,26 @@
     </row>
     <row r="24" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="76" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C24" s="77">
         <f>MATCH(B24,B3:B19,0)</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D24" s="107">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E24" s="109">
-        <v>37</v>
-      </c>
-      <c r="F24" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="106">
+        <v>2</v>
+      </c>
+      <c r="G24" s="116">
+        <v>32000</v>
+      </c>
+      <c r="H24" s="119" t="s">
         <v>388</v>
-      </c>
-      <c r="G24" s="116">
-        <v>12000</v>
-      </c>
-      <c r="H24" s="119" t="s">
-        <v>145</v>
       </c>
       <c r="I24" s="117" t="s">
         <v>145</v>
@@ -3634,7 +3635,7 @@
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B24" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$B$3:$B$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -3644,7 +3645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:Q30"/>
   <sheetViews>
@@ -3683,7 +3684,7 @@
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="8">
         <f>'Расчет массы фланца'!C5/1000</f>
-        <v>5.5</v>
+        <v>11.111000000000001</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
@@ -3971,7 +3972,7 @@
 IF($B$3&lt;=$H$10,
 (D14*$D$11+E14*$E$11+F14*$F$11+G14*$G$11+H14*($B$3-$H$9))/$B$3,
 1))))),1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
@@ -4009,7 +4010,7 @@
 IF($B$3&lt;=$H$10,
 (D15*$D$11+E15*$E$11+F15*$F$11+G15*$G$11+H15*($B$3-$H$9))/$B$3,
 1))))),1)</f>
-        <v>19.600000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
@@ -4073,7 +4074,7 @@
 IF($B$3&lt;=$H$10,
 (D17*$D$11+E17*$E$11+F17*$F$11+G17*$G$11+H17*($B$3-$H$9))/$B$3,
 1))))),2)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
@@ -4111,7 +4112,7 @@
 IF($B$3&lt;=$H$10,
 (D18*$D$11+E18*$E$11+F18*$F$11+G18*$G$11+H18*($B$3-$H$9))/$B$3,
 1))))),0)</f>
-        <v>17255</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
@@ -4220,10 +4221,10 @@
     <mergeCell ref="J12:K12"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D7:H7">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D7:H7" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$M$6:$M$10</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B26">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B26" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>$P$6:$P$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -4233,7 +4234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:X111"/>
   <sheetViews>
@@ -4299,7 +4300,7 @@
       </c>
       <c r="M2" s="24">
         <f>I6*1000</f>
-        <v>1200</v>
+        <v>1111</v>
       </c>
       <c r="N2" s="122"/>
     </row>
@@ -4320,7 +4321,7 @@
       </c>
       <c r="M3" s="24">
         <f>I8*1000</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N3" s="122"/>
       <c r="R3" s="38" t="s">
@@ -4367,7 +4368,7 @@
       </c>
       <c r="M4" s="24">
         <f>(I5+I7)*1000</f>
-        <v>6000</v>
+        <v>11611</v>
       </c>
       <c r="N4" s="122"/>
       <c r="R4" s="38" t="s">
@@ -4399,7 +4400,7 @@
       </c>
       <c r="I5" s="17">
         <f>'Задание грунтов'!B3</f>
-        <v>5.5</v>
+        <v>11.111000000000001</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="37"/>
@@ -4438,11 +4439,11 @@
       </c>
       <c r="I6" s="24">
         <f>J6/1000</f>
-        <v>1.2</v>
+        <v>1.111</v>
       </c>
       <c r="J6" s="17">
         <f>'Расчет массы фланца'!C3</f>
-        <v>1200</v>
+        <v>1111</v>
       </c>
       <c r="K6" s="37"/>
       <c r="L6" s="125"/>
@@ -4456,7 +4457,7 @@
       </c>
       <c r="D7" s="27">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!E24,'Задание грунтов'!K14)</f>
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E7" s="120" t="s">
         <v>198</v>
@@ -4477,7 +4478,7 @@
       </c>
       <c r="M7" s="22">
         <f>M2*TAN(3.14159/12)</f>
-        <v>321.53874650646719</v>
+        <v>297.69128947390419</v>
       </c>
       <c r="N7" s="122"/>
     </row>
@@ -4497,11 +4498,11 @@
       </c>
       <c r="I8" s="24">
         <f>J8/1000</f>
-        <v>1.2E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="J8" s="17">
         <f>'Расчет массы фланца'!C4</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K8" s="37"/>
       <c r="L8" s="125" t="s">
@@ -4509,7 +4510,7 @@
       </c>
       <c r="M8" s="22">
         <f>M7*12</f>
-        <v>3858.4649580776063</v>
+        <v>3572.2954736868505</v>
       </c>
       <c r="N8" s="122"/>
     </row>
@@ -4520,7 +4521,7 @@
       </c>
       <c r="D9" s="27">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!D24,'Задание грунтов'!K15)</f>
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E9" s="120" t="s">
         <v>198</v>
@@ -4542,7 +4543,7 @@
       </c>
       <c r="M9" s="22">
         <f>M8*M3</f>
-        <v>46301.579496931277</v>
+        <v>39295.250210555358</v>
       </c>
       <c r="N9" s="122"/>
       <c r="R9" s="1" t="s">
@@ -4556,7 +4557,7 @@
       </c>
       <c r="D10" s="25">
         <f>RADIANS(D9)</f>
-        <v>0.24434609527920614</v>
+        <v>0.52359877559829882</v>
       </c>
       <c r="G10" s="39" t="s">
         <v>211</v>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="I10" s="26">
         <f>PI()/64*(I6^4-(I6-2*I8)^4)</f>
-        <v>7.9019588306085513E-3</v>
+        <v>5.7500822058765364E-3</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="37"/>
@@ -4575,7 +4576,7 @@
       </c>
       <c r="M10" s="23">
         <f>M4*M9*10^(-9)</f>
-        <v>0.27780947698158764</v>
+        <v>0.45625715019475827</v>
       </c>
       <c r="N10" s="122"/>
       <c r="R10" s="42" t="s">
@@ -4602,7 +4603,7 @@
       </c>
       <c r="M11" s="21">
         <f>M5*M10</f>
-        <v>2180.8043943054631</v>
+        <v>3581.6186290288524</v>
       </c>
       <c r="N11" s="122"/>
       <c r="R11" s="43" t="s">
@@ -4639,9 +4640,9 @@
       <c r="C13" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="18" t="str">
+      <c r="D13" s="18">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!F24,'Задание грунтов'!K17)</f>
-        <v>1,7</v>
+        <v>2</v>
       </c>
       <c r="E13" s="120" t="s">
         <v>198</v>
@@ -4678,11 +4679,11 @@
         <v>227</v>
       </c>
       <c r="I14" s="17">
-        <v>2000</v>
+        <v>1193.29</v>
       </c>
       <c r="J14" s="27">
         <f t="shared" ref="J14:J19" si="0">I14*1.1/1.3</f>
-        <v>1692.3076923076922</v>
+        <v>1009.7069230769232</v>
       </c>
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
@@ -4700,7 +4701,7 @@
       </c>
       <c r="D15" s="62">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!G24,'Задание грунтов'!K18)</f>
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="E15" s="120" t="s">
         <v>198</v>
@@ -4711,11 +4712,11 @@
       </c>
       <c r="I15" s="3">
         <f>I14+I16*I7</f>
-        <v>2045</v>
+        <v>1243.0149999999999</v>
       </c>
       <c r="J15" s="22">
         <f t="shared" si="0"/>
-        <v>1730.3846153846152</v>
+        <v>1051.781923076923</v>
       </c>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
@@ -4742,11 +4743,11 @@
         <v>233</v>
       </c>
       <c r="I16" s="17">
-        <v>90</v>
+        <v>99.45</v>
       </c>
       <c r="J16" s="27">
         <f t="shared" si="0"/>
-        <v>76.15384615384616</v>
+        <v>84.15</v>
       </c>
       <c r="K16" s="37"/>
       <c r="L16" s="37"/>
@@ -4759,11 +4760,11 @@
       </c>
       <c r="I17" s="3">
         <f>I16</f>
-        <v>90</v>
+        <v>99.45</v>
       </c>
       <c r="J17" s="22">
         <f t="shared" si="0"/>
-        <v>76.15384615384616</v>
+        <v>84.15</v>
       </c>
       <c r="K17" s="37"/>
       <c r="L17" s="37"/>
@@ -4777,11 +4778,11 @@
         <v>236</v>
       </c>
       <c r="I18" s="17">
-        <v>120</v>
+        <v>85.4</v>
       </c>
       <c r="J18" s="27">
         <f t="shared" si="0"/>
-        <v>101.53846153846153</v>
+        <v>72.261538461538464</v>
       </c>
       <c r="K18" s="37"/>
       <c r="L18" s="37"/>
@@ -4794,11 +4795,11 @@
       </c>
       <c r="I19" s="3">
         <f>I18</f>
-        <v>120</v>
+        <v>85.4</v>
       </c>
       <c r="J19" s="22">
         <f t="shared" si="0"/>
-        <v>101.53846153846153</v>
+        <v>72.261538461538464</v>
       </c>
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="D22" s="23">
         <f>D7/9.8</f>
-        <v>3.7755102040816322</v>
+        <v>2.1428571428571428</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
@@ -4861,7 +4862,7 @@
       </c>
       <c r="D23" s="2">
         <f>D9</f>
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>80</v>
@@ -4886,14 +4887,14 @@
       </c>
       <c r="D24" s="2">
         <f>RADIANS(D23)</f>
-        <v>0.24434609527920614</v>
+        <v>0.52359877559829882</v>
       </c>
       <c r="G24" s="39" t="s">
         <v>243</v>
       </c>
       <c r="H24" s="2">
         <f>I7+2/I31</f>
-        <v>6.0088950653517053</v>
+        <v>5.7124181409705344</v>
       </c>
       <c r="I24" s="37"/>
       <c r="J24" s="37"/>
@@ -4916,14 +4917,14 @@
       </c>
       <c r="D25" s="25">
         <f>0.9*((TAN(D24)-0.1))</f>
-        <v>0.13439520255886261</v>
+        <v>0.42961524227066317</v>
       </c>
       <c r="G25" s="39" t="s">
         <v>248</v>
       </c>
       <c r="H25" s="2">
         <f>(I15+I16*H24)/I10*I6/2/1000</f>
-        <v>196.34123219160185</v>
+        <v>174.9669548463487</v>
       </c>
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
@@ -4944,16 +4945,16 @@
       <c r="C26" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="D26" s="2" t="str">
+      <c r="D26" s="2">
         <f>D13</f>
-        <v>1,7</v>
+        <v>2</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>253</v>
       </c>
       <c r="H26" s="48">
         <f>H25/235</f>
-        <v>0.83549460507064621</v>
+        <v>0.74454023338871789</v>
       </c>
       <c r="I26" s="37" t="s">
         <v>254</v>
@@ -4973,14 +4974,14 @@
       </c>
       <c r="D27" s="2">
         <f>DEGREES(D28)</f>
-        <v>32.082736336205762</v>
+        <v>38.366404666480499</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>257</v>
       </c>
       <c r="H27" s="48">
         <f>H25/335</f>
-        <v>0.58609323042269212</v>
+        <v>0.52228941745178714</v>
       </c>
       <c r="I27" s="37" t="s">
         <v>254</v>
@@ -4998,7 +4999,7 @@
       </c>
       <c r="D28" s="2">
         <f>ATAN(TAN(D24)+D22/10)</f>
-        <v>0.55994938211601297</v>
+        <v>0.66962008358260161</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
@@ -5018,7 +5019,7 @@
       </c>
       <c r="D29" s="2">
         <f>D15/9.8</f>
-        <v>1224.4897959183672</v>
+        <v>3265.3061224489793</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
@@ -5041,7 +5042,7 @@
       </c>
       <c r="I30" s="24">
         <f>IF(I6&gt;0.8,(I6+1),(1.5*I6+0.5))</f>
-        <v>2.2000000000000002</v>
+        <v>2.1109999999999998</v>
       </c>
       <c r="J30" s="37"/>
       <c r="K30" s="37"/>
@@ -5063,7 +5064,7 @@
       </c>
       <c r="I31" s="23">
         <f>(D11*I30/D14/I9/I10)^0.2</f>
-        <v>0.36304920973700083</v>
+        <v>0.38369907131579561</v>
       </c>
       <c r="J31" s="37"/>
       <c r="K31" s="37"/>
@@ -5080,7 +5081,7 @@
       </c>
       <c r="D32" s="3">
         <f>I14</f>
-        <v>2000</v>
+        <v>1193.29</v>
       </c>
       <c r="G32" s="39" t="s">
         <v>266</v>
@@ -5090,7 +5091,7 @@
       </c>
       <c r="I32" s="23">
         <f>I5*I31</f>
-        <v>1.9967706535535046</v>
+        <v>4.263280381389805</v>
       </c>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
@@ -5126,7 +5127,7 @@
       </c>
       <c r="D34" s="3">
         <f>I16</f>
-        <v>90</v>
+        <v>99.45</v>
       </c>
       <c r="R34" s="47"/>
     </row>
@@ -5151,7 +5152,7 @@
       </c>
       <c r="D36" s="3">
         <f>I18</f>
-        <v>120</v>
+        <v>85.4</v>
       </c>
       <c r="R36" s="47"/>
     </row>
@@ -5162,7 +5163,7 @@
       <c r="C37" s="39"/>
       <c r="D37" s="2">
         <f>J16</f>
-        <v>76.15384615384616</v>
+        <v>84.15</v>
       </c>
       <c r="R37" s="47"/>
     </row>
@@ -5183,7 +5184,7 @@
       </c>
       <c r="D39" s="2">
         <f>D32/9.8+D41*D52</f>
-        <v>208.67346938775509</v>
+        <v>126.83826530612244</v>
       </c>
       <c r="R39" s="47"/>
     </row>
@@ -5209,7 +5210,7 @@
       </c>
       <c r="D41" s="2">
         <f>D34/9.8</f>
-        <v>9.1836734693877542</v>
+        <v>10.147959183673469</v>
       </c>
       <c r="R41" s="47"/>
     </row>
@@ -5235,7 +5236,7 @@
       </c>
       <c r="D43" s="2">
         <f>D36/9.8</f>
-        <v>12.244897959183673</v>
+        <v>8.7142857142857135</v>
       </c>
       <c r="R43" s="47"/>
     </row>
@@ -5248,7 +5249,7 @@
       </c>
       <c r="D44" s="2">
         <f>D39/D41</f>
-        <v>22.722222222222225</v>
+        <v>12.498893916540974</v>
       </c>
       <c r="R44" s="47"/>
     </row>
@@ -5261,7 +5262,7 @@
       </c>
       <c r="D45" s="2">
         <f>D37/9.8</f>
-        <v>7.7708006279434851</v>
+        <v>8.5867346938775508</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.3">
@@ -5307,7 +5308,7 @@
       </c>
       <c r="D50" s="2">
         <f>I5</f>
-        <v>5.5</v>
+        <v>11.111000000000001</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5319,7 +5320,7 @@
       </c>
       <c r="D51" s="2">
         <f>I6</f>
-        <v>1.2</v>
+        <v>1.111</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5437,7 +5438,7 @@
       </c>
       <c r="D63" s="23">
         <f>1-0.03*D22</f>
-        <v>0.88673469387755099</v>
+        <v>0.93571428571428572</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
@@ -5449,7 +5450,7 @@
       </c>
       <c r="D64" s="23">
         <f>D44/D50</f>
-        <v>4.1313131313131315</v>
+        <v>1.1249117016057035</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5459,7 +5460,7 @@
       </c>
       <c r="D65" s="23">
         <f>(D51/2+D53)*D25/D50</f>
-        <v>1.4661294824603193E-2</v>
+        <v>2.1478828825610061E-2</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5469,7 +5470,7 @@
       </c>
       <c r="D66" s="23">
         <f>(D51/2+D54)*D25/D50</f>
-        <v>1.4661294824603193E-2</v>
+        <v>2.1478828825610061E-2</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
@@ -5479,7 +5480,7 @@
       </c>
       <c r="D67" s="23">
         <f>D26*TAN(RADIANS(45+D23/2))^2</f>
-        <v>2.7850259890958404</v>
+        <v>5.9999999999999964</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5489,7 +5490,7 @@
       </c>
       <c r="D68" s="23">
         <f>2*D22*TAN(RADIANS(45+D23/2))</f>
-        <v>9.6648653859477367</v>
+        <v>7.4230748895809002</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
@@ -5499,7 +5500,7 @@
       </c>
       <c r="D69" s="23">
         <f>D68/D67/D50</f>
-        <v>0.63096296367452886</v>
+        <v>0.11134723681608173</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5509,7 +5510,7 @@
       </c>
       <c r="D70" s="50">
         <f>D25*D51/2/D50</f>
-        <v>1.4661294824603193E-2</v>
+        <v>2.1478828825610061E-2</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5519,7 +5520,7 @@
       </c>
       <c r="D71" s="23">
         <f>2/3*TAN(D28/5)/TAN(RADIANS(45-D27/2))</f>
-        <v>0.13548658696783511</v>
+        <v>0.18566331721690227</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5529,7 +5530,7 @@
       </c>
       <c r="D72" s="23">
         <f>1+D71*D50/D51</f>
-        <v>1.6209801902692442</v>
+        <v>2.8568002858658876</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
@@ -5541,7 +5542,7 @@
       </c>
       <c r="D73" s="23">
         <f>D51*D72</f>
-        <v>1.9451762283230929</v>
+        <v>3.173905117597001</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
@@ -5553,7 +5554,7 @@
       </c>
       <c r="D74" s="22">
         <f>D67*D73*D50*D50/2</f>
-        <v>81.937666032424985</v>
+        <v>1175.4969036340881</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
@@ -5607,7 +5608,7 @@
       </c>
       <c r="D79" s="20">
         <f>D25*D43/D74</f>
-        <v>2.0084237460289169E-2</v>
+        <v>3.1848573626902664E-3</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
@@ -5633,7 +5634,7 @@
       </c>
       <c r="D82" s="2">
         <f>3/2*(D64+D69)</f>
-        <v>7.1434141424814905</v>
+        <v>1.854388407632678</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.3">
@@ -5643,7 +5644,7 @@
       </c>
       <c r="D83" s="2">
         <f>3*D64*D69</f>
-        <v>7.8201167316024947</v>
+        <v>0.37576742890761522</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.3">
@@ -5653,7 +5654,7 @@
       </c>
       <c r="D84" s="2">
         <f>-(1/4*((2*D69+1)*(3*D64+3*D70+2)-D69)+3/4*D79*(1+D64)-3/4*(D77*(D64+D55/D50-D65)-D78*(D64-D56/D50+D66+1)))</f>
-        <v>-8.083931392770495</v>
+        <v>-1.6398501077574641</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.3">
@@ -5663,7 +5664,7 @@
       </c>
       <c r="D85" s="23">
         <f>(3*D64*D69-0.5625)/(3/2*(D64+D69)+1.5)</f>
-        <v>0.83967013635642618</v>
+        <v>-5.5668142266258665E-2</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.3">
@@ -5673,7 +5674,7 @@
       </c>
       <c r="D86" s="23">
         <f>(-1/4*(((2*D69+1)*(3*D64+3*D70+2)-D69)-3*(D77*(D64+D55/D50-D65)-D78*(D64-D56/D50+D66+1))+3*D79*(1+D64))+0.03125)/(3/2*(D64+D69)+1.5)</f>
-        <v>-0.9316551607995267</v>
+        <v>-0.47955093813739824</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.3">
@@ -5685,7 +5686,7 @@
       </c>
       <c r="D87" s="50">
         <f>-D85/2+SQRT((D85/2)^2-D86)</f>
-        <v>0.63274112634251223</v>
+        <v>0.72088938902142197</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.3">
@@ -5730,7 +5731,7 @@
       </c>
       <c r="D92" s="25" t="str">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!H24,'Задание грунтов'!C28)</f>
-        <v>1,3</v>
+        <v>1,2</v>
       </c>
       <c r="E92" s="121" t="s">
         <v>342</v>
@@ -5759,7 +5760,7 @@
       </c>
       <c r="D94" s="2">
         <f>D63/(D64+D87)*(D74*(2/3*(D87^3+3*D69*(D87^2-D87+1/2)-3/2*D87+1)+(2*D69+1)*D70)+D25*D43*(1-D87)+D75*(D87-D55/D50+D65)+D76*(1-D87-D56/D50+D66))*D47</f>
-        <v>8.8618637830771263</v>
+        <v>172.35046992379233</v>
       </c>
     </row>
     <row r="95" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5769,7 +5770,7 @@
       </c>
       <c r="D95" s="2">
         <f>D94*D44</f>
-        <v>201.36123818214139</v>
+        <v>2154.190240043466</v>
       </c>
     </row>
     <row r="96" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5781,7 +5782,7 @@
       </c>
       <c r="D96" s="2">
         <f>D94*D92/D93</f>
-        <v>8.8618637830771263</v>
+        <v>159.09274146811597</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5793,7 +5794,7 @@
       </c>
       <c r="D97" s="2">
         <f>D96*D44</f>
-        <v>201.36123818214139</v>
+        <v>1988.4832985016606</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
@@ -5803,7 +5804,7 @@
       <c r="C98" s="55"/>
       <c r="D98" s="53">
         <f>D41/D96</f>
-        <v>1.0363139960383012</v>
+        <v>6.3786437332260304E-2</v>
       </c>
       <c r="E98" s="34" t="s">
         <v>254</v>
@@ -5828,7 +5829,7 @@
       </c>
       <c r="D101" s="2">
         <f>D51/D50</f>
-        <v>0.21818181818181817</v>
+        <v>9.9990999909999087E-2</v>
       </c>
     </row>
     <row r="102" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5848,7 +5849,7 @@
       </c>
       <c r="D103" s="2">
         <f>D51/D50</f>
-        <v>0.21818181818181817</v>
+        <v>9.9990999909999087E-2</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
@@ -5858,7 +5859,7 @@
       </c>
       <c r="D104" s="2">
         <f>-29.48*D101^5+96.67*D101^4-124.7*D101^3+82.34*D101^2-31.23*D101+8.713</f>
-        <v>4.7281679440475379</v>
+        <v>6.2982353852572253</v>
       </c>
     </row>
     <row r="105" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5878,7 +5879,7 @@
       </c>
       <c r="D106" s="2">
         <f>-29.48*D103^5+96.67*D103^4-124.7*D103^3+82.34*D103^2-31.23*D103+8.713</f>
-        <v>4.7281679440475379</v>
+        <v>6.2982353852572253</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.3">
@@ -5890,7 +5891,7 @@
       </c>
       <c r="D107" s="111">
         <f>ROUND((3*D45/4/D29/D50/D50*(6*D64+3)*D104),3)</f>
-        <v>2.1000000000000001E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E107" s="34" t="s">
         <v>254</v>
@@ -5903,7 +5904,7 @@
       <c r="C108" s="41"/>
       <c r="D108" s="51">
         <f>3*D45/8/D29/D50/D50*((6*D64+5)*D105+(6*D64+1)*D106)</f>
-        <v>3.001084691763618E-2</v>
+        <v>1.2076099342894411E-3</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
@@ -5942,7 +5943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J34"/>
   <sheetViews>
@@ -5998,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="88">
-        <v>1200</v>
+        <v>1111</v>
       </c>
       <c r="D3" s="89" t="s">
         <v>364</v>
@@ -6022,7 +6023,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="88">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="91" t="s">
         <v>366</v>
@@ -6033,7 +6034,7 @@
       </c>
       <c r="G4" s="88">
         <f>C3-100</f>
-        <v>1100</v>
+        <v>1011</v>
       </c>
       <c r="H4" s="89" t="s">
         <v>368</v>
@@ -6049,7 +6050,7 @@
         <v>370</v>
       </c>
       <c r="C5" s="88">
-        <v>5500</v>
+        <v>11111</v>
       </c>
       <c r="D5" s="91" t="s">
         <v>366</v>
@@ -6106,7 +6107,7 @@
       </c>
       <c r="C8" s="93">
         <f>C3*TAN(3.14159/12)</f>
-        <v>321.53874650646719</v>
+        <v>297.69128947390419</v>
       </c>
       <c r="D8" s="86"/>
       <c r="E8" s="122"/>
@@ -6128,7 +6129,7 @@
       </c>
       <c r="C9" s="93">
         <f>C8*12</f>
-        <v>3858.4649580776063</v>
+        <v>3572.2954736868505</v>
       </c>
       <c r="D9" s="86"/>
       <c r="E9" s="122"/>
@@ -6137,7 +6138,7 @@
       </c>
       <c r="G9" s="94">
         <f>3.14*G4^2/4/10^6</f>
-        <v>0.94984999999999997</v>
+        <v>0.80236498499999998</v>
       </c>
       <c r="H9" s="86"/>
       <c r="I9" s="122"/>
@@ -6150,7 +6151,7 @@
       </c>
       <c r="C10" s="93">
         <f>C9*C4</f>
-        <v>46301.579496931277</v>
+        <v>39295.250210555358</v>
       </c>
       <c r="D10" s="86"/>
       <c r="E10" s="122"/>
@@ -6159,7 +6160,7 @@
       </c>
       <c r="G10" s="94">
         <f>G8-G9</f>
-        <v>2.2638333688937173</v>
+        <v>2.4113183838937173</v>
       </c>
       <c r="H10" s="86"/>
       <c r="I10" s="122"/>
@@ -6172,7 +6173,7 @@
       </c>
       <c r="C11" s="94">
         <f>C5*C10*10^(-9)</f>
-        <v>0.25465868723312202</v>
+        <v>0.43660952508948059</v>
       </c>
       <c r="D11" s="86"/>
       <c r="E11" s="122"/>
@@ -6181,7 +6182,7 @@
       </c>
       <c r="G11" s="94">
         <f>G10*G5/1000</f>
-        <v>0.11319166844468585</v>
+        <v>0.12056591919468586</v>
       </c>
       <c r="H11" s="86"/>
       <c r="I11" s="122"/>
@@ -6194,7 +6195,7 @@
       </c>
       <c r="C12" s="96">
         <f>C6*C11</f>
-        <v>1999.0706947800079</v>
+        <v>3427.3847719524224</v>
       </c>
       <c r="D12" s="91" t="s">
         <v>375</v>
@@ -6205,7 +6206,7 @@
       </c>
       <c r="G12" s="96">
         <f>G6*G11</f>
-        <v>888.55459729078393</v>
+        <v>946.44246567828395</v>
       </c>
       <c r="H12" s="91" t="s">
         <v>375</v>
@@ -6220,7 +6221,7 @@
       </c>
       <c r="C13" s="96">
         <f>C12*1.1</f>
-        <v>2198.9777642580088</v>
+        <v>3770.1232491476649</v>
       </c>
       <c r="D13" s="91" t="s">
         <v>375</v>
@@ -6239,7 +6240,7 @@
       </c>
       <c r="C14" s="100">
         <f>C12*1.15</f>
-        <v>2298.931298997009</v>
+        <v>3941.4924877452854</v>
       </c>
       <c r="D14" s="101" t="s">
         <v>375</v>
@@ -6264,7 +6265,7 @@
       </c>
       <c r="G15" s="35">
         <f>C12+G12</f>
-        <v>2887.6252920707921</v>
+        <v>4373.8272376307068</v>
       </c>
       <c r="H15" s="91" t="s">
         <v>375</v>
@@ -6283,7 +6284,7 @@
       </c>
       <c r="G16" s="35">
         <f>G15*1.1</f>
-        <v>3176.3878212778714</v>
+        <v>4811.209961393778</v>
       </c>
       <c r="H16" s="91" t="s">
         <v>375</v>
@@ -6302,7 +6303,7 @@
       </c>
       <c r="G17" s="104">
         <f>G15*1.15</f>
-        <v>3320.7690858814108</v>
+        <v>5029.9013232753123</v>
       </c>
       <c r="H17" s="101" t="s">
         <v>375</v>
